--- a/test_resource/golden_Testcases_merged_steps.xlsx
+++ b/test_resource/golden_Testcases_merged_steps.xlsx
@@ -46,31 +46,31 @@
     <t>TC_100</t>
   </si>
   <si>
-    <t>a1 b1 a1 b1 Pyt hon</t>
-  </si>
-  <si>
-    <t>xx yy er gf vv i vv i</t>
-  </si>
-  <si>
-    <t>a b c d e f g</t>
-  </si>
-  <si>
-    <t>a11 qwerty qqq mnbghd cccc12 qwwqwq33</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>a3 d4</t>
-  </si>
-  <si>
-    <t>abcdefg</t>
+    <t>this is a simple dummy  test try the of text</t>
+  </si>
+  <si>
+    <t>sample test to  similarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is  a sample test to generate the similarity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is a sample test to generate the similarity on  similarity processor </t>
+  </si>
+  <si>
+    <t>this should not get  called</t>
+  </si>
+  <si>
+    <t>these are random tests</t>
+  </si>
+  <si>
+    <t>this test case can call to other</t>
+  </si>
+  <si>
+    <t>tests to</t>
+  </si>
+  <si>
+    <t>so get it and try</t>
   </si>
 </sst>
 </file>

--- a/test_resource/golden_Testcases_merged_steps.xlsx
+++ b/test_resource/golden_Testcases_merged_steps.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PythonRepo\TextSimilarityProcessor\test_resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="merged_steps" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +145,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -186,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +231,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,14 +442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -453,7 +470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,7 +481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -475,7 +492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,7 +503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -497,7 +514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -508,7 +525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -519,7 +536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -530,7 +547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -541,7 +558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
